--- a/MOSFERATU JLCPCB BOM.xlsx
+++ b/MOSFERATU JLCPCB BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\21 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C87F24C-CBF9-4344-8320-2D1FD4F87930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66D3A6-EA7F-4647-9EF7-87FF8F0CF61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{7C5E8125-3473-4EC6-A5B7-A31A87F34834}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>RESISTOR, 100Ω</t>
   </si>
@@ -200,9 +200,6 @@
     <t>C33</t>
   </si>
   <si>
-    <t>C21, C34</t>
-  </si>
-  <si>
     <t>CAPACITOR, 330nF</t>
   </si>
   <si>
@@ -237,6 +234,21 @@
   </si>
   <si>
     <t>CAPACITOR, 1uF</t>
+  </si>
+  <si>
+    <t>C3, C21</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 220nF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 33nF</t>
+  </si>
+  <si>
+    <t>C34</t>
   </si>
 </sst>
 </file>
@@ -353,10 +365,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4190BA-C98A-438C-88A8-AA3BC868EB56}" name="Table1" displayName="Table1" ref="A1:C30" totalsRowShown="0">
-  <autoFilter ref="A1:C30" xr:uid="{6C4190BA-C98A-438C-88A8-AA3BC868EB56}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
-    <sortCondition ref="A1:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4190BA-C98A-438C-88A8-AA3BC868EB56}" name="Table1" displayName="Table1" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32" xr:uid="{6C4190BA-C98A-438C-88A8-AA3BC868EB56}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
+    <sortCondition ref="A1:A32"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{B17B92A3-8CF8-459B-AA09-3E5B87F82AFB}" name="Comment"/>
@@ -684,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3022E77E-7943-40A1-844A-62AA280B036F}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -732,7 +744,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
@@ -779,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -787,10 +799,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -798,10 +810,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -809,10 +821,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -820,10 +832,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -831,10 +843,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -842,65 +854,65 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -908,10 +920,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
@@ -919,10 +931,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>30</v>
@@ -930,10 +942,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -941,10 +953,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -952,10 +964,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>30</v>
@@ -963,10 +975,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>30</v>
@@ -974,10 +986,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>30</v>
@@ -985,10 +997,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>30</v>
@@ -996,10 +1008,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>30</v>
@@ -1007,10 +1019,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>30</v>
@@ -1018,12 +1030,34 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/MOSFERATU JLCPCB BOM.xlsx
+++ b/MOSFERATU JLCPCB BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\21 NOV 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66D3A6-EA7F-4647-9EF7-87FF8F0CF61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC6016D-C6AD-49E4-ABC4-17C8EE5CA9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{7C5E8125-3473-4EC6-A5B7-A31A87F34834}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="19180" windowHeight="10060" xr2:uid="{7C5E8125-3473-4EC6-A5B7-A31A87F34834}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>C9</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
     <t>Q2, Q3, Q7, Q8</t>
   </si>
   <si>
@@ -182,18 +179,12 @@
     <t>U1</t>
   </si>
   <si>
-    <t>R2A, R3A, R10, R14, R20, R23</t>
-  </si>
-  <si>
     <t>R80</t>
   </si>
   <si>
     <t>R1, R2, R8, R11, R18</t>
   </si>
   <si>
-    <t>RLEDFX</t>
-  </si>
-  <si>
     <t>CAPACITOR, 15nF</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>C15</t>
   </si>
   <si>
-    <t>R3, R13, R17, R22, R24, R36</t>
-  </si>
-  <si>
     <t>RESISTOR, 330Ω</t>
   </si>
   <si>
@@ -249,6 +237,18 @@
   </si>
   <si>
     <t>C34</t>
+  </si>
+  <si>
+    <t>R2A, R3A, R10, R14, R20, R24</t>
+  </si>
+  <si>
+    <t>R3, R13, R17, R22, R36</t>
+  </si>
+  <si>
+    <t>R15, R23</t>
+  </si>
+  <si>
+    <t>R4, RLEDFX</t>
   </si>
 </sst>
 </file>
@@ -698,73 +698,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3022E77E-7943-40A1-844A-62AA280B036F}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -772,76 +772,76 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -849,65 +849,65 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,87 +915,87 @@
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,10 +1003,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1014,51 +1014,51 @@
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/MOSFERATU JLCPCB BOM.xlsx
+++ b/MOSFERATU JLCPCB BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\02 DEC 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC6016D-C6AD-49E4-ABC4-17C8EE5CA9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C356701F-CE97-4594-92CC-B4EA64094724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="19180" windowHeight="10060" xr2:uid="{7C5E8125-3473-4EC6-A5B7-A31A87F34834}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{7C5E8125-3473-4EC6-A5B7-A31A87F34834}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>RESISTOR, 100Ω</t>
   </si>
@@ -74,9 +74,6 @@
     <t>RESISTOR, 3.3kΩ</t>
   </si>
   <si>
-    <t>CAPACITOR, 39nF</t>
-  </si>
-  <si>
     <t>RESISTOR, 150kΩ</t>
   </si>
   <si>
@@ -104,36 +101,9 @@
     <t>C3A</t>
   </si>
   <si>
-    <t>C10, C17</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>Q2, Q3, Q7, Q8</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
     <t>0603</t>
   </si>
   <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
-    <t>SOD-123</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -152,103 +122,121 @@
     <t>SMD,D6.3xL5.4mm</t>
   </si>
   <si>
-    <t>ZVNL110GTA, MOSFETs</t>
+    <t>SOIC-14</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 47nF</t>
+  </si>
+  <si>
+    <t>RESISTOR, 330Ω</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 1uF</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 220nF</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 33nF</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 10nF</t>
+  </si>
+  <si>
+    <t>RLEDFX</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>SOD-323</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4</t>
+  </si>
+  <si>
+    <t>C3, C7, C12, C15, C25</t>
+  </si>
+  <si>
+    <t>C1, C1A, C2, C17</t>
+  </si>
+  <si>
+    <t>C6, C16</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C13, C21</t>
+  </si>
+  <si>
+    <t>C18, C20</t>
+  </si>
+  <si>
+    <t>C8, C10, C11, C14</t>
+  </si>
+  <si>
+    <t>C5, C22</t>
+  </si>
+  <si>
+    <t>C4, C9, C24, C26</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>R2A, R3A, R4, R7, R11, R18</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R3, R12, R15, R16, R22, R25</t>
+  </si>
+  <si>
+    <t>R1, R2, R5, R13, R17</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R19, R21, R24</t>
+  </si>
+  <si>
+    <t>U2</t>
   </si>
   <si>
     <t>Operational, Amplifier, LMC6484AIMX/NOPB</t>
   </si>
   <si>
-    <t>SOIC-14</t>
-  </si>
-  <si>
-    <t>DIODE, B5817W</t>
-  </si>
-  <si>
-    <t>C8, C12, C20, C23, C31</t>
-  </si>
-  <si>
-    <t>C1, C1A, C5</t>
-  </si>
-  <si>
-    <t>C11, C13, C16, C22</t>
-  </si>
-  <si>
-    <t>C14, C19</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>R80</t>
-  </si>
-  <si>
-    <t>R1, R2, R8, R11, R18</t>
-  </si>
-  <si>
-    <t>CAPACITOR, 15nF</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>CAPACITOR, 330nF</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>CAPACITOR, 47nF</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>RESISTOR, 330Ω</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>R21, R33, R35</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t>Precision, Op, Amps, LMC6482AIMX/NOPB</t>
   </si>
   <si>
+    <t>DIODE, 1N5819WS</t>
+  </si>
+  <si>
     <t>SOIC-8-150mil</t>
   </si>
   <si>
-    <t>CAPACITOR, 1uF</t>
-  </si>
-  <si>
-    <t>C3, C21</t>
-  </si>
-  <si>
-    <t>CAPACITOR, 220nF</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CAPACITOR, 33nF</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>R2A, R3A, R10, R14, R20, R24</t>
-  </si>
-  <si>
-    <t>R3, R13, R17, R22, R36</t>
-  </si>
-  <si>
-    <t>R15, R23</t>
-  </si>
-  <si>
-    <t>R4, RLEDFX</t>
+    <t>2N7002, MOSFETs</t>
   </si>
 </sst>
 </file>
@@ -365,10 +353,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4190BA-C98A-438C-88A8-AA3BC868EB56}" name="Table1" displayName="Table1" ref="A1:C32" totalsRowShown="0">
-  <autoFilter ref="A1:C32" xr:uid="{6C4190BA-C98A-438C-88A8-AA3BC868EB56}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
-    <sortCondition ref="A1:A32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4190BA-C98A-438C-88A8-AA3BC868EB56}" name="Table1" displayName="Table1" ref="A1:C30" totalsRowShown="0">
+  <autoFilter ref="A1:C30" xr:uid="{6C4190BA-C98A-438C-88A8-AA3BC868EB56}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
+    <sortCondition ref="B1:B30"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{B17B92A3-8CF8-459B-AA09-3E5B87F82AFB}" name="Comment"/>
@@ -696,369 +684,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3022E77E-7943-40A1-844A-62AA280B036F}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
